--- a/data/testdata/searKey.xlsx
+++ b/data/testdata/searKey.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>标题:这里是目标对象</t>
-  </si>
-  <si>
-    <t>18811383797</t>
   </si>
   <si>
     <t>15158171649</t>
@@ -995,7 +992,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1022,10 +1019,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
